--- a/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
+++ b/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>Personajes</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>ü</t>
@@ -195,9 +189,6 @@
     <t>santas/beatas</t>
   </si>
   <si>
-    <t>Pl</t>
-  </si>
-  <si>
     <t>NN</t>
   </si>
   <si>
@@ -223,20 +214,77 @@
 a los Corredoras de Viena</t>
   </si>
   <si>
+    <t xml:space="preserve">
+el
+el comienzo del</t>
+  </si>
+  <si>
     <t>los
 el comienzo de los</t>
   </si>
   <si>
-    <t>la
-el comienzo de la</t>
-  </si>
-  <si>
     <t>las
 el comienzo de las</t>
   </si>
   <si>
-    <t>el
-el comienzo del</t>
+    <t xml:space="preserve">
+la
+el comienzo de la</t>
+  </si>
+  <si>
+    <t>Temas</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>Epoca del año</t>
+  </si>
+  <si>
+    <t>Estamos en época de</t>
+  </si>
+  <si>
+    <t>Hoy</t>
+  </si>
+  <si>
+    <t>es
+es la
+recordamos a
+recordamos el
+recordamos la</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>es el día del</t>
+  </si>
+  <si>
+    <t>es el día de la</t>
+  </si>
+  <si>
+    <t>Período en que se ? recuerda</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Siglas</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>MFP</t>
   </si>
 </sst>
 </file>
@@ -266,7 +314,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,13 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -358,11 +412,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,91 +713,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="2.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="35.77734375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="39.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H2" s="13" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>20</v>
@@ -737,254 +809,503 @@
         <v>22</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="K6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G11" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G44"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G24:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
+++ b/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>Personajes</t>
   </si>
@@ -263,9 +263,6 @@
     <t>es el día de la</t>
   </si>
   <si>
-    <t>Período en que se ? recuerda</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -285,6 +282,15 @@
   </si>
   <si>
     <t>MFP</t>
+  </si>
+  <si>
+    <t>es el día de los</t>
+  </si>
+  <si>
+    <t>es el día de las</t>
+  </si>
+  <si>
+    <t>Época en que se ? recuerda</t>
   </si>
 </sst>
 </file>
@@ -713,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -726,10 +732,10 @@
     <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="35.77734375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="39.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="35.77734375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="39.6640625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -755,10 +761,10 @@
         <v>39</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>4</v>
@@ -791,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
@@ -828,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
@@ -863,7 +869,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -900,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -939,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
@@ -980,10 +986,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>4</v>
@@ -1000,7 +1006,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
@@ -1023,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>9</v>
@@ -1044,7 +1050,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>11</v>
@@ -1068,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
@@ -1099,11 +1105,11 @@
       <c r="C18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>61</v>
+      <c r="D18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>4</v>
@@ -1117,8 +1123,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1127,144 +1135,175 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G21" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G21"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="F25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="4" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="G31" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="G32" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="C30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33"/>
@@ -1302,9 +1341,15 @@
     <row r="44" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G44"/>
     </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G46"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
+++ b/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>Personajes</t>
   </si>
@@ -214,22 +214,20 @@
 a los Corredoras de Viena</t>
   </si>
   <si>
-    <t xml:space="preserve">
-el
-el comienzo del</t>
-  </si>
-  <si>
     <t>los
 el comienzo de los</t>
   </si>
   <si>
+    <t>la
+el comienzo de la</t>
+  </si>
+  <si>
     <t>las
 el comienzo de las</t>
   </si>
   <si>
-    <t xml:space="preserve">
-la
-el comienzo de la</t>
+    <t>el
+el comienzo del</t>
   </si>
   <si>
     <t>Temas</t>
@@ -247,13 +245,6 @@
     <t>Hoy</t>
   </si>
   <si>
-    <t>es
-es la
-recordamos a
-recordamos el
-recordamos la</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -291,13 +282,21 @@
   </si>
   <si>
     <t>Época en que se ? recuerda</t>
+  </si>
+  <si>
+    <t>es Miércoles de Cenizas
+recordamos el Inmac. Cor. de María</t>
+  </si>
+  <si>
+    <t>es la Fiesta de Corpus Christi
+recordamos la Inmac. Conc. de María</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +317,21 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -341,13 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -406,19 +420,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -427,17 +438,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -739,92 +762,123 @@
     <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G2" s="13" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="H2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -834,72 +888,78 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" s="21"/>
       <c r="H6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -909,109 +969,94 @@
         <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="4"/>
@@ -1019,44 +1064,45 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1064,246 +1110,230 @@
       <c r="K14" s="4"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="4"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="G26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="17" t="s">
+      <c r="G29" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="G30" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>58</v>
-      </c>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G32"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33"/>
@@ -1344,13 +1374,7 @@
     <row r="45" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G45"/>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G46"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G26:G27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
+++ b/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
@@ -744,17 +744,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="2.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="32.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="33.88671875" style="2" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="35.77734375" style="2" customWidth="1" outlineLevel="1"/>
     <col min="10" max="11" width="39.6640625" style="2" customWidth="1" outlineLevel="1"/>
@@ -1114,13 +1114,13 @@
       <c r="E15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
         <v>2</v>
@@ -1189,7 +1189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
         <v>2</v>
@@ -1207,10 +1207,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>

--- a/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
+++ b/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>Personajes</t>
   </si>
@@ -230,13 +230,7 @@
 el comienzo del</t>
   </si>
   <si>
-    <t>Temas</t>
-  </si>
-  <si>
     <t>Eventos</t>
-  </si>
-  <si>
-    <t>Epoca del año</t>
   </si>
   <si>
     <t>Estamos en época de</t>
@@ -290,6 +284,12 @@
   <si>
     <t>es la Fiesta de Corpus Christi
 recordamos la Inmac. Conc. de María</t>
+  </si>
+  <si>
+    <t>Epoca del año - sin 'hoyEstamos'</t>
+  </si>
+  <si>
+    <t>Temas - sin 'hoyEstamos'</t>
   </si>
 </sst>
 </file>
@@ -744,9 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -758,7 +756,7 @@
     <col min="8" max="8" width="33.88671875" style="2" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="35.77734375" style="2" customWidth="1" outlineLevel="1"/>
     <col min="10" max="11" width="39.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,10 +773,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>4</v>
@@ -814,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
@@ -850,7 +848,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>11</v>
@@ -888,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
@@ -926,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -966,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
@@ -1008,10 +1006,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>4</v>
@@ -1028,7 +1026,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
@@ -1051,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
@@ -1072,7 +1070,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>11</v>
@@ -1096,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>13</v>
@@ -1114,13 +1112,13 @@
       <c r="E15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:9" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
@@ -1128,35 +1126,35 @@
         <v>39</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
@@ -1164,32 +1162,32 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="10" t="s">
         <v>2</v>
@@ -1198,21 +1196,21 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23"/>
     </row>
@@ -1224,63 +1222,63 @@
         <v>39</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="18"/>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
         <v>1</v>
       </c>
@@ -1288,51 +1286,47 @@
         <v>39</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="18"/>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="G32"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">

--- a/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
+++ b/Backup/Varios/Archivos-Office/Artículos RCLV.xlsx
@@ -71,10 +71,6 @@
     <t>religiosas/laicas</t>
   </si>
   <si>
-    <t>a Juan Pablo II, santo
-a san Francisco de Asís</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>Temas - sin 'hoyEstamos'</t>
+  </si>
+  <si>
+    <t>al papa Juan Pablo II, santo
+a san Francisco de Asís</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -770,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>4</v>
@@ -785,19 +787,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>7</v>
@@ -812,32 +814,32 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="12" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -848,32 +850,32 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -886,32 +888,32 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -924,32 +926,32 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="L6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -964,37 +966,37 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -1003,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>4</v>
@@ -1026,13 +1028,13 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1049,13 +1051,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1070,13 +1072,13 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1094,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1114,7 +1116,7 @@
     </row>
     <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1123,19 +1125,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1145,13 +1147,13 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1162,13 +1164,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1178,13 +1180,13 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1196,13 +1198,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1210,7 +1212,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23"/>
     </row>
@@ -1219,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1241,13 +1243,13 @@
       <c r="C25" s="4"/>
       <c r="D25" s="18"/>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="11"/>
@@ -1259,13 +1261,13 @@
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="24"/>
     </row>
@@ -1274,7 +1276,7 @@
     </row>
     <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28"/>
     </row>
@@ -1283,19 +1285,19 @@
         <v>1</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1305,7 +1307,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="18"/>
       <c r="E30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>3</v>
@@ -1319,7 +1321,7 @@
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
